--- a/WebContent/abc.xlsx
+++ b/WebContent/abc.xlsx
@@ -14,12 +14,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="9">
   <si>
     <t>aaaaa</t>
   </si>
   <si>
     <t>aaaa</t>
+  </si>
+  <si>
+    <t>eeeee</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>vvvvv</t>
+  </si>
+  <si>
+    <t>vvvv</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>kho</t>
   </si>
 </sst>
 </file>
@@ -361,32 +382,400 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A20" sqref="A20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
